--- a/results/DeterministicUSM/dataset_11/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_11/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.68</v>
+        <v>0.6582278481012658</v>
       </c>
       <c r="O2">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="P2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Q2">
-        <v>0.8109302162163288</v>
+        <v>0.7954260296803636</v>
       </c>
       <c r="R2">
-        <v>17.56279135134685</v>
+        <v>27.29730807077637</v>
       </c>
       <c r="S2">
-        <v>2.25</v>
+        <v>2.215384615384616</v>
       </c>
       <c r="T2">
-        <v>2.133333333333333</v>
+        <v>1.838709677419355</v>
       </c>
       <c r="U2">
-        <v>0.7576857016975165</v>
+        <v>0.6090640633494039</v>
       </c>
       <c r="V2">
-        <v>11.26942894907451</v>
+        <v>14.23802807233696</v>
       </c>
       <c r="W2">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="X2">
         <v>939</v>
       </c>
       <c r="Y2">
-        <v>889</v>
+        <v>860</v>
       </c>
       <c r="Z2">
-        <v>1.017997750281215</v>
+        <v>1.031395348837209</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.7</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="O3">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q3">
-        <v>0.9808292530117262</v>
+        <v>1.022626381690187</v>
       </c>
       <c r="R3">
-        <v>20.57512240964822</v>
+        <v>31.07231835070231</v>
       </c>
       <c r="S3">
-        <v>2.666666666666667</v>
+        <v>2.780487804878049</v>
       </c>
       <c r="T3">
-        <v>2.346153846153846</v>
+        <v>2.297297297297297</v>
       </c>
       <c r="U3">
-        <v>0.8527773261518292</v>
+        <v>0.831733343846092</v>
       </c>
       <c r="V3">
-        <v>12.82778952005244</v>
+        <v>17.2258662776946</v>
       </c>
       <c r="W3">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="X3">
         <v>833</v>
       </c>
       <c r="Y3">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="Z3">
-        <v>1.019157088122605</v>
+        <v>1.032894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.4358974358974359</v>
+        <v>0.8805970149253731</v>
       </c>
       <c r="O4">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="P4">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Q4">
-        <v>0.7487170317147561</v>
+        <v>0.7498425242364906</v>
       </c>
       <c r="R4">
-        <v>12.79490388998354</v>
+        <v>22.00944854581056</v>
       </c>
       <c r="S4">
-        <v>2.114285714285714</v>
+        <v>2.116666666666667</v>
       </c>
       <c r="T4">
-        <v>1.566666666666667</v>
+        <v>2.134615384615385</v>
       </c>
       <c r="U4">
-        <v>0.4489502200479032</v>
+        <v>0.7582864827309068</v>
       </c>
       <c r="V4">
-        <v>3.531493398562905</v>
+        <v>19.56910289799285</v>
       </c>
       <c r="W4">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="X4">
         <v>931</v>
       </c>
       <c r="Y4">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="Z4">
-        <v>1.024663677130045</v>
+        <v>1.009259259259259</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.3898305084745763</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="O5">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="P5">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Q5">
-        <v>1.271225031335103</v>
+        <v>0.9496890122760031</v>
       </c>
       <c r="R5">
-        <v>29.76182427929262</v>
+        <v>33.66648234937183</v>
       </c>
       <c r="S5">
-        <v>3.565217391304348</v>
+        <v>2.584905660377359</v>
       </c>
       <c r="T5">
-        <v>1.92</v>
+        <v>2.212765957446809</v>
       </c>
       <c r="U5">
-        <v>0.6523251860396901</v>
+        <v>0.7942432974313142</v>
       </c>
       <c r="V5">
-        <v>6.691870349007747</v>
+        <v>19.67056502072823</v>
       </c>
       <c r="W5">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="X5">
         <v>993</v>
       </c>
       <c r="Y5">
-        <v>934</v>
+        <v>909</v>
       </c>
       <c r="Z5">
-        <v>1.038543897216274</v>
+        <v>1.02970297029703</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="O6">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="P6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q6">
-        <v>0.8109302162163288</v>
+        <v>0.9628107475090479</v>
       </c>
       <c r="R6">
-        <v>14.05023308107748</v>
+        <v>27.56194860461999</v>
       </c>
       <c r="S6">
-        <v>2.25</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="T6">
-        <v>2.4</v>
+        <v>1.903846153846154</v>
       </c>
       <c r="U6">
-        <v>0.8754687373538999</v>
+        <v>0.6438761315531625</v>
       </c>
       <c r="V6">
-        <v>10.490625252922</v>
+        <v>13.51844115923555</v>
       </c>
       <c r="W6">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="X6">
         <v>855</v>
       </c>
       <c r="Y6">
-        <v>815</v>
+        <v>787</v>
       </c>
       <c r="Z6">
-        <v>1.014723926380368</v>
+        <v>1.026683608640407</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I7">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.5370370370370371</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="O7">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="P7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q7">
-        <v>1.239690886928015</v>
+        <v>1.15976671182144</v>
       </c>
       <c r="R7">
-        <v>26.72680048758367</v>
+        <v>38.08863166260671</v>
       </c>
       <c r="S7">
-        <v>3.454545454545455</v>
+        <v>3.189189189189189</v>
       </c>
       <c r="T7">
-        <v>3.636363636363636</v>
+        <v>2.234042553191489</v>
       </c>
       <c r="U7">
-        <v>1.290984181315566</v>
+        <v>0.8038127484474646</v>
       </c>
       <c r="V7">
-        <v>14.79917400552878</v>
+        <v>20.22080082296916</v>
       </c>
       <c r="W7">
-        <v>944</v>
+        <v>915</v>
       </c>
       <c r="X7">
         <v>973</v>
       </c>
       <c r="Y7">
-        <v>919</v>
+        <v>892</v>
       </c>
       <c r="Z7">
-        <v>1.027203482045702</v>
+        <v>1.025784753363229</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>72</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>66</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>0.2</v>
+      </c>
+      <c r="N8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="O8">
+        <v>131</v>
+      </c>
+      <c r="P8">
+        <v>65</v>
+      </c>
+      <c r="Q8">
+        <v>0.7008100533055144</v>
+      </c>
+      <c r="R8">
+        <v>20.44734653514156</v>
+      </c>
+      <c r="S8">
+        <v>2.015384615384615</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>41</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>0.1</v>
-      </c>
-      <c r="N8">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="O8">
-        <v>66</v>
-      </c>
-      <c r="P8">
-        <v>25</v>
-      </c>
-      <c r="Q8">
-        <v>0.9707789171582248</v>
-      </c>
-      <c r="R8">
-        <v>16.73052707104438</v>
-      </c>
-      <c r="S8">
-        <v>2.64</v>
-      </c>
-      <c r="T8">
-        <v>1.6</v>
-      </c>
       <c r="U8">
-        <v>0.4700036292457356</v>
+        <v>0.6931471805599453</v>
       </c>
       <c r="V8">
-        <v>2.599927415085288</v>
+        <v>11.04670149984197</v>
       </c>
       <c r="W8">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="X8">
         <v>819</v>
       </c>
       <c r="Y8">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="Z8">
-        <v>1.037275064267352</v>
+        <v>1.039840637450199</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>106</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <v>0.5188679245283019</v>
+      </c>
+      <c r="O9">
+        <v>143</v>
+      </c>
+      <c r="P9">
         <v>37</v>
       </c>
-      <c r="I9">
-        <v>38</v>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9">
-        <v>74</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>0.1</v>
-      </c>
-      <c r="N9">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="O9">
-        <v>89</v>
-      </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
       <c r="Q9">
-        <v>1.78058616862993</v>
+        <v>1.351926717615683</v>
       </c>
       <c r="R9">
-        <v>47.29120747055106</v>
+        <v>55.97871144821973</v>
       </c>
       <c r="S9">
-        <v>5.933333333333334</v>
+        <v>3.864864864864865</v>
       </c>
       <c r="T9">
-        <v>2.027027027027027</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="U9">
-        <v>0.7065702008920861</v>
+        <v>0.9444616088408515</v>
       </c>
       <c r="V9">
-        <v>11.85690256699282</v>
+        <v>21.9438436905702</v>
       </c>
       <c r="W9">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="X9">
         <v>825</v>
       </c>
       <c r="Y9">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="Z9">
-        <v>1.047936085219707</v>
+        <v>1.070931849791377</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.3260869565217391</v>
+        <v>0.7848101265822784</v>
       </c>
       <c r="O10">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <v>1.229948290729197</v>
+        <v>1.027994721454156</v>
       </c>
       <c r="R10">
-        <v>22.63098247614527</v>
+        <v>33.76823225601712</v>
       </c>
       <c r="S10">
-        <v>3.421052631578947</v>
+        <v>2.795454545454545</v>
       </c>
       <c r="T10">
-        <v>1.348837209302326</v>
+        <v>2.050847457627119</v>
       </c>
       <c r="U10">
-        <v>0.2992428948528569</v>
+        <v>0.7182531016910215</v>
       </c>
       <c r="V10">
-        <v>2.132555521327154</v>
+        <v>19.62306700022973</v>
       </c>
       <c r="W10">
-        <v>935</v>
+        <v>888</v>
       </c>
       <c r="X10">
         <v>950</v>
       </c>
       <c r="Y10">
-        <v>904</v>
+        <v>871</v>
       </c>
       <c r="Z10">
-        <v>1.03429203539823</v>
+        <v>1.019517795637199</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K11">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.5957446808510638</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="O11">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="P11">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>1.592630794117719</v>
+        <v>1.499623046426894</v>
       </c>
       <c r="R11">
-        <v>27.88843047058737</v>
+        <v>49.50942383932765</v>
       </c>
       <c r="S11">
-        <v>4.916666666666667</v>
+        <v>4.48</v>
       </c>
       <c r="T11">
-        <v>2.473684210526316</v>
+        <v>1.872727272727273</v>
       </c>
       <c r="U11">
-        <v>0.9057086225436182</v>
+        <v>0.6273958029971649</v>
       </c>
       <c r="V11">
-        <v>10.79153617167125</v>
+        <v>13.49323083515593</v>
       </c>
       <c r="W11">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="X11">
         <v>925</v>
       </c>
       <c r="Y11">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="Z11">
-        <v>1.021640091116173</v>
+        <v>1.04653937947494</v>
       </c>
     </row>
   </sheetData>
